--- a/docs/tables/tables.xlsx
+++ b/docs/tables/tables.xlsx
@@ -1,31 +1,310 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\keisei\data-analysis\bridge-treatment-effects\docs\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F942CB-CFAA-4172-82B6-18A20D5E8528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9BA3C87-6C94-4AB9-BE49-41C3E111E6CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="81">
+  <si>
+    <t>岡山県</t>
+  </si>
+  <si>
+    <t>備前市</t>
+  </si>
+  <si>
+    <t>大多府島</t>
+  </si>
+  <si>
+    <t>鴻島</t>
+  </si>
+  <si>
+    <t>瀬戸内市</t>
+  </si>
+  <si>
+    <t>岡山市</t>
+  </si>
+  <si>
+    <t>犬島</t>
+  </si>
+  <si>
+    <t>玉野市</t>
+  </si>
+  <si>
+    <t>石島</t>
+  </si>
+  <si>
+    <t>倉敷市</t>
+  </si>
+  <si>
+    <t>松島</t>
+  </si>
+  <si>
+    <t>六口島</t>
+  </si>
+  <si>
+    <t>笠岡市</t>
+  </si>
+  <si>
+    <t>高島</t>
+  </si>
+  <si>
+    <t>広島県</t>
+  </si>
+  <si>
+    <t>尾道市</t>
+  </si>
+  <si>
+    <t>百島</t>
+  </si>
+  <si>
+    <t>細島</t>
+  </si>
+  <si>
+    <t>竹原市</t>
+  </si>
+  <si>
+    <t>大久野島</t>
+  </si>
+  <si>
+    <t>大崎上島町</t>
+  </si>
+  <si>
+    <t>生野島</t>
+  </si>
+  <si>
+    <t>呉市</t>
+  </si>
+  <si>
+    <t>三角島</t>
+  </si>
+  <si>
+    <t>情島</t>
+  </si>
+  <si>
+    <t>広島市</t>
+  </si>
+  <si>
+    <t>似島</t>
+  </si>
+  <si>
+    <t>金輪島</t>
+  </si>
+  <si>
+    <t>廿日市市</t>
+  </si>
+  <si>
+    <t>厳島</t>
+  </si>
+  <si>
+    <t>山口県</t>
+  </si>
+  <si>
+    <t>周防大島町</t>
+  </si>
+  <si>
+    <t>笠佐島</t>
+  </si>
+  <si>
+    <t>浮島</t>
+  </si>
+  <si>
+    <t>平生町</t>
+  </si>
+  <si>
+    <t>佐合島</t>
+  </si>
+  <si>
+    <t>田布施町</t>
+  </si>
+  <si>
+    <t>馬島</t>
+  </si>
+  <si>
+    <t>周南市</t>
+  </si>
+  <si>
+    <t>大津島</t>
+  </si>
+  <si>
+    <t>下関市</t>
+  </si>
+  <si>
+    <t>六連島</t>
+  </si>
+  <si>
+    <t>香川県</t>
+  </si>
+  <si>
+    <t>土庄町</t>
+  </si>
+  <si>
+    <t>沖之島</t>
+  </si>
+  <si>
+    <t>小豊島</t>
+  </si>
+  <si>
+    <t>直島町</t>
+  </si>
+  <si>
+    <t>直島</t>
+  </si>
+  <si>
+    <t>屏風島</t>
+  </si>
+  <si>
+    <t>向島</t>
+  </si>
+  <si>
+    <t>高松市</t>
+  </si>
+  <si>
+    <t>大島</t>
+  </si>
+  <si>
+    <t>坂出市</t>
+  </si>
+  <si>
+    <t>小与島</t>
+  </si>
+  <si>
+    <t>丸亀市</t>
+  </si>
+  <si>
+    <t>本島</t>
+  </si>
+  <si>
+    <t>三豊市</t>
+  </si>
+  <si>
+    <t>粟島</t>
+  </si>
+  <si>
+    <t>愛媛県</t>
+  </si>
+  <si>
+    <t>上島町</t>
+  </si>
+  <si>
+    <t>岩城島</t>
+  </si>
+  <si>
+    <t>今治市</t>
+  </si>
+  <si>
+    <t>鵜島</t>
+  </si>
+  <si>
+    <t>津島</t>
+  </si>
+  <si>
+    <t>小大下島</t>
+  </si>
+  <si>
+    <t>大下島</t>
+  </si>
+  <si>
+    <t>来島</t>
+  </si>
+  <si>
+    <t>小島</t>
+  </si>
+  <si>
+    <t>松山市</t>
+  </si>
+  <si>
+    <t>興居島</t>
+  </si>
+  <si>
+    <t>釣島</t>
+  </si>
+  <si>
+    <t>八幡浜市</t>
+  </si>
+  <si>
+    <t>宇和島市</t>
+  </si>
+  <si>
+    <t>嘉島</t>
+  </si>
+  <si>
+    <t>戸島</t>
+  </si>
+  <si>
+    <t>県</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>市町村</t>
+    <rPh sb="0" eb="3">
+      <t>シチョウソン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>島名</t>
+    <rPh sb="0" eb="1">
+      <t>シマ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前島 黄島 黒島</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>市町村</t>
+    <rPh sb="0" eb="3">
+      <t>シチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>島名</t>
+    <rPh sb="0" eb="2">
+      <t>シマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -47,20 +326,26 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFCCCCCC"/>
-      <name val="Consolas"/>
-      <family val="3"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -68,14 +353,105 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -92,6 +468,72 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{193AA3DE-CA4B-A3E9-C196-187AC712BA66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7258050" y="695325"/>
+          <a:ext cx="4381500" cy="5962650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -357,43 +799,507 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A9"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1"/>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A2" s="1"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A3" s="1"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A4" s="1"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A5" s="1"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A6" s="1"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A7" s="1"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A9" s="1"/>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>